--- a/LP/results_1.xlsx
+++ b/LP/results_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>fn</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>9MI0800164</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -204,19 +201,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -252,30 +243,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -586,39 +565,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
         <v>81874</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -626,15 +605,15 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
@@ -642,15 +621,15 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -658,7 +637,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -666,15 +645,15 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>82162</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2.2</v>
       </c>
     </row>
@@ -682,7 +661,7 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
     </row>
@@ -690,7 +669,7 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
     </row>
@@ -698,7 +677,7 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1.75</v>
       </c>
     </row>
@@ -706,31 +685,31 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>82189</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>82127</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>82163</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -738,103 +717,103 @@
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>82164</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>45746</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="3">
         <v>82101</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="3">
         <v>82108</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -842,7 +821,7 @@
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -850,39 +829,39 @@
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>82083</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>82184</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>45787</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>82191</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -890,7 +869,7 @@
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>0.9</v>
       </c>
     </row>
@@ -898,23 +877,23 @@
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>45658</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>82028</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>0.8</v>
       </c>
     </row>
@@ -922,7 +901,7 @@
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -930,7 +909,7 @@
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -938,7 +917,7 @@
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -946,7 +925,7 @@
       <c r="A45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -954,7 +933,7 @@
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -962,7 +941,7 @@
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -970,47 +949,47 @@
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>45629</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>0.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>82141</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>81763</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>45692</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>82203</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1018,7 +997,7 @@
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1026,7 +1005,7 @@
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1034,7 +1013,7 @@
       <c r="A56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1042,7 +1021,7 @@
       <c r="A57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1050,7 +1029,7 @@
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1058,7 +1037,7 @@
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1066,23 +1045,23 @@
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>82262</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>82278</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1090,7 +1069,7 @@
       <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1098,7 +1077,7 @@
       <c r="A64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1106,63 +1085,63 @@
       <c r="A65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>81813</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>82159</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>45774</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>81972</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>0.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>81765</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>0.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>82178</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>0.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>82073</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>0.35</v>
       </c>
     </row>
@@ -1170,7 +1149,7 @@
       <c r="A73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -1178,47 +1157,47 @@
       <c r="A74" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>0.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>82276</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>0.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>82281</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>0.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>45439</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>0.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>82062</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>0.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>81670</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -1226,7 +1205,7 @@
       <c r="A80" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -1234,15 +1213,15 @@
       <c r="A81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>81633</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -1250,39 +1229,39 @@
       <c r="A83" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>45518</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>81798</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>45799</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>82301</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -1290,7 +1269,7 @@
       <c r="A88" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -1298,7 +1277,7 @@
       <c r="A89" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -1306,71 +1285,71 @@
       <c r="A90" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>81992</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>81412</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>81770</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>81779</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>81405</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>81873</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>82138</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>82204</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1378,7 +1357,7 @@
       <c r="A99" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1386,15 +1365,15 @@
       <c r="A100" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>82230</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1402,7 +1381,7 @@
       <c r="A102" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1410,7 +1389,7 @@
       <c r="A103" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1418,7 +1397,7 @@
       <c r="A104" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1426,7 +1405,7 @@
       <c r="A105" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1434,7 +1413,7 @@
       <c r="A106" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1442,679 +1421,609 @@
       <c r="A107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>81603</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>81638</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>81854</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>45545</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>81804</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>81916</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>81977</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>81963</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>45682</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>45704</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>45698</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>82096</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>81951</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>82013</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>82084</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>82103</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>82193</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>45749</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>82026</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" s="3"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B128" s="4"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B129" s="4"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B130" s="3"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B131" s="4"/>
+      <c r="A131" s="1"/>
+      <c r="B131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="3"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="3"/>
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" s="4"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B135" s="3"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B136" s="3"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B137" s="4"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B138" s="4"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B139" s="4"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B140" s="4"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B141" s="4"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B142" s="4"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B143" s="3"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B144" s="3"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B145" s="4"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B146" s="4"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B147" s="3"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B148" s="4"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B149" s="4"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B150" s="4"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B151" s="3"/>
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B152" s="3"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B153" s="3"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B154" s="3"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B155" s="3"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B156" s="3"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B157" s="3"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B158" s="4"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B159" s="4"/>
+      <c r="A159" s="1"/>
+      <c r="B159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B160" s="4"/>
+      <c r="A160" s="1"/>
+      <c r="B160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="6"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="6"/>
-      <c r="B162" s="3"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="6"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="6"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="6"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="6"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="6"/>
-      <c r="B167" s="4"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="6"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="6"/>
-      <c r="B169" s="3"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="6"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="6"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="6"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="6"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="6"/>
-      <c r="B174" s="4"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="6"/>
-      <c r="B175" s="4"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="6"/>
-      <c r="B176" s="4"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="6"/>
-      <c r="B177" s="3"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="6"/>
-      <c r="B178" s="3"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="6"/>
-      <c r="B179" s="3"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="6"/>
-      <c r="B180" s="3"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="6"/>
-      <c r="B181" s="3"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="6"/>
-      <c r="B182" s="3"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="6"/>
-      <c r="B183" s="4"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="6"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="6"/>
-      <c r="B185" s="4"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="6"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="6"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
-      <c r="A188" s="6"/>
-      <c r="B188" s="4"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
-      <c r="A189" s="6"/>
-      <c r="B189" s="4"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
-      <c r="A190" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B190" s="3"/>
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
-      <c r="A191" s="6"/>
-      <c r="B191" s="4"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
-      <c r="A192" s="6"/>
-      <c r="B192" s="4"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
-      <c r="A193" s="6"/>
-      <c r="B193" s="3"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
-      <c r="A194" s="6"/>
-      <c r="B194" s="4"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
-      <c r="A195" s="6"/>
-      <c r="B195" s="3"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
-      <c r="A196" s="6"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
-      <c r="A197" s="6"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
-      <c r="A198" s="6"/>
-      <c r="B198" s="4"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
-      <c r="A199" s="6"/>
-      <c r="B199" s="4"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
-      <c r="A200" s="6"/>
-      <c r="B200" s="4"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="6"/>
-      <c r="B201" s="4"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="6"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="6"/>
-      <c r="B203" s="3"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="6"/>
-      <c r="B204" s="3"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="6"/>
-      <c r="B205" s="4"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="6"/>
-      <c r="B206" s="4"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="6"/>
-      <c r="B207" s="4"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="6"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="6"/>
-      <c r="B209" s="4"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="6"/>
-      <c r="B210" s="4"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="6"/>
-      <c r="B211" s="3"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="6"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="6"/>
-      <c r="B213" s="4"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="6"/>
-      <c r="B214" s="3"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="6"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="6"/>
-      <c r="B216" s="4"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="6"/>
-      <c r="B217" s="3"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="6"/>
-      <c r="B218" s="4"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="6"/>
-      <c r="B219" s="3"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
-      <c r="A220" s="6"/>
-      <c r="B220" s="3"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
-      <c r="A221" s="6"/>
-      <c r="B221" s="3"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
-      <c r="A222" s="6"/>
-      <c r="B222" s="4"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
-      <c r="A223" s="6"/>
-      <c r="B223" s="4"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="6"/>
-      <c r="B224" s="3"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="6"/>
-      <c r="B225" s="4"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
-      <c r="A226" s="6"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="6"/>
-      <c r="B227" s="4"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
-      <c r="A228" s="6"/>
-      <c r="B228" s="4"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
-      <c r="A229" s="6"/>
-      <c r="B229" s="4"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
-      <c r="A230" s="6"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
-      <c r="A231" s="6"/>
-      <c r="B231" s="4"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="6"/>
-      <c r="B232" s="4"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="6"/>
-      <c r="B233" s="4"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
-      <c r="A234" s="6"/>
-      <c r="B234" s="4"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="6"/>
-      <c r="B235" s="4"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
-      <c r="A236" s="6"/>
-      <c r="B236" s="4"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
-      <c r="A237" s="6"/>
-      <c r="B237" s="3"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
-      <c r="A238" s="6"/>
-      <c r="B238" s="3"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
